--- a/MasterList.xlsx
+++ b/MasterList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
   <si>
     <t>Student Number</t>
   </si>
@@ -64,6 +64,24 @@
   </si>
   <si>
     <t>Quiet Work</t>
+  </si>
+  <si>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>Katelyn</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>2018/11/18</t>
+  </si>
+  <si>
+    <t>4:12 PM</t>
+  </si>
+  <si>
+    <t>Math</t>
   </si>
 </sst>
 </file>
@@ -416,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB36B92-3664-F44C-863F-9EAE1729DA0F}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
@@ -467,6 +485,29 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MasterList.xlsx
+++ b/MasterList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
   <si>
     <t>Student Number</t>
   </si>
@@ -82,6 +82,36 @@
   </si>
   <si>
     <t>Math</t>
+  </si>
+  <si>
+    <t>4:54 PM</t>
+  </si>
+  <si>
+    <t>Yash</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>4:58 PM</t>
+  </si>
+  <si>
+    <t>222222222</t>
+  </si>
+  <si>
+    <t>Guy</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Academic Support</t>
+  </si>
+  <si>
+    <t>4:59 PM</t>
+  </si>
+  <si>
+    <t>Chill Zone</t>
   </si>
 </sst>
 </file>
@@ -434,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB36B92-3664-F44C-863F-9EAE1729DA0F}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
@@ -508,6 +538,98 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MasterList.xlsx
+++ b/MasterList.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasharora/Desktop/School/CompSci/SignInSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A02BB3-0443-5F40-9320-9E866EE9A1F9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58EE1C3-4F49-1741-9641-17C54E2DEC3B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{5EAFCAD1-2523-D746-8D75-176EC8CBF95B}"/>
+    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{5EAFCAD1-2523-D746-8D75-176EC8CBF95B}"/>
   </bookViews>
   <sheets>
-    <sheet name="SignInSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>Student Number</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>Chill Zone</t>
+  </si>
+  <si>
+    <t>333333333</t>
+  </si>
+  <si>
+    <t>Alston</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -148,8 +157,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB36B92-3664-F44C-863F-9EAE1729DA0F}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,45 +513,74 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>43426.45497378472</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>43426.45497378472</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>43426.455039988425</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>43426.453768391206</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>43426.453768391206</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>43426.453832025465</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -552,7 +594,7 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -561,38 +603,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -601,32 +643,55 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
       </c>
       <c r="H7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
         <v>28</v>
       </c>
     </row>

--- a/MasterList.xlsx
+++ b/MasterList.xlsx
@@ -3,21 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasharora/Desktop/School/CompSci/SignInSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58EE1C3-4F49-1741-9641-17C54E2DEC3B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{365E0321-B8AA-7B4B-8DBB-C4604CA265DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{5EAFCAD1-2523-D746-8D75-176EC8CBF95B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Master" sheetId="2" r:id="rId1"/>
+    <sheet name="Test" sheetId="3" r:id="rId2"/>
+    <sheet name="Chill Zone" sheetId="4" r:id="rId3"/>
+    <sheet name="Quiet Work" sheetId="5" r:id="rId4"/>
+    <sheet name="Academic Support" sheetId="6" r:id="rId5"/>
+    <sheet name="Group Work" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="13">
   <si>
     <t>Student Number</t>
   </si>
@@ -51,83 +57,25 @@
     <t>Reason</t>
   </si>
   <si>
-    <t>073689440</t>
-  </si>
-  <si>
-    <t>2018/11/17</t>
-  </si>
-  <si>
-    <t>7:06 PM</t>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>Yash</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>Music</t>
   </si>
   <si>
-    <t>Quiet Work</t>
-  </si>
-  <si>
-    <t>111111111</t>
-  </si>
-  <si>
-    <t>Katelyn</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>2018/11/18</t>
-  </si>
-  <si>
-    <t>4:12 PM</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>4:54 PM</t>
-  </si>
-  <si>
-    <t>Yash</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>4:58 PM</t>
-  </si>
-  <si>
-    <t>222222222</t>
-  </si>
-  <si>
-    <t>Guy</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Academic Support</t>
-  </si>
-  <si>
-    <t>4:59 PM</t>
-  </si>
-  <si>
     <t>Chill Zone</t>
-  </si>
-  <si>
-    <t>333333333</t>
-  </si>
-  <si>
-    <t>Alston</t>
-  </si>
-  <si>
-    <t>L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -157,12 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,16 +422,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB36B92-3664-F44C-863F-9EAE1729DA0F}">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,188 +460,225 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>43426.45497378472</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>43426.45497378472</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>43426.455039988425</v>
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43426.473106446756</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43426.473106446756</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43426.473168680553</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>43426.453768391206</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>43426.453768391206</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>43426.453832025465</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/MasterList.xlsx
+++ b/MasterList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasharora/Desktop/School/CompSci/SignInSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{365E0321-B8AA-7B4B-8DBB-C4604CA265DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{5A0457F4-3229-8B47-8E5A-938B8CE1D0D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{5EAFCAD1-2523-D746-8D75-176EC8CBF95B}"/>
   </bookViews>
@@ -57,19 +57,19 @@
     <t>Reason</t>
   </si>
   <si>
-    <t>111111111</t>
-  </si>
-  <si>
-    <t>Yash</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Chill Zone</t>
+    <t>222222222</t>
+  </si>
+  <si>
+    <t>Guy</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Quiet Work</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,13 +471,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>43426.473106446756</v>
+        <v>43426.486491238429</v>
       </c>
       <c r="E2" s="2">
-        <v>43426.473106446756</v>
+        <v>43426.486491238429</v>
       </c>
       <c r="F2" s="2">
-        <v>43426.473168680553</v>
+        <v>43426.486674756947</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -492,6 +492,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -530,7 +569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -569,7 +608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -608,7 +647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -645,43 +684,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/MasterList.xlsx
+++ b/MasterList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasharora/Desktop/School/CompSci/SignInSystem/"/>
     </mc:Choice>
@@ -23,7 +23,7 @@
   <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="22">
   <si>
     <t>Student Number</t>
   </si>
@@ -70,12 +70,40 @@
   </si>
   <si>
     <t>Quiet Work</t>
+  </si>
+  <si>
+    <t>333333333</t>
+  </si>
+  <si>
+    <t>Alston</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Chill Zone</t>
+  </si>
+  <si>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>Yash</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Science</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -105,10 +133,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
@@ -431,10 +463,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,29 +492,81 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>43426.550574166664</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>43426.550574166664</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>43426.55063945602</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>43426.52895605324</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>43426.52895605324</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>43426.52901103009</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>43426.486491238429</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="2">
         <v>43426.486491238429</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F3" s="2">
         <v>43426.486674756947</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -499,7 +583,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,13 +616,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,6 +646,32 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>43426.550574166664</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>43426.550574166664</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>43426.55063945602</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -577,7 +687,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +726,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +765,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/MasterList.xlsx
+++ b/MasterList.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasharora/Desktop/School/CompSci/SignInSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{5A0457F4-3229-8B47-8E5A-938B8CE1D0D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D9D224-E7BA-2940-B940-DDB88B195BBA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{5EAFCAD1-2523-D746-8D75-176EC8CBF95B}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
   <si>
     <t>Student Number</t>
   </si>
@@ -57,53 +57,13 @@
     <t>Reason</t>
   </si>
   <si>
-    <t>222222222</t>
-  </si>
-  <si>
-    <t>Guy</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Quiet Work</t>
-  </si>
-  <si>
-    <t>333333333</t>
-  </si>
-  <si>
-    <t>Alston</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Chill Zone</t>
-  </si>
-  <si>
-    <t>111111111</t>
-  </si>
-  <si>
-    <t>Yash</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Science</t>
+    <t>Subject Missed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -137,10 +97,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,18 +415,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,84 +451,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>43426.550574166664</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>43426.550574166664</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>43426.55063945602</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>43426.52895605324</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>43426.52895605324</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>43426.52901103009</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43426.486491238429</v>
-      </c>
-      <c r="E3" s="2">
-        <v>43426.486491238429</v>
-      </c>
-      <c r="F3" s="2">
-        <v>43426.486674756947</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -577,13 +467,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,6 +497,9 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -616,13 +509,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="A2:I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -647,32 +542,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>43426.550574166664</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>43426.550574166664</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>43426.55063945602</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -681,13 +558,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="A2:I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -712,6 +591,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -720,13 +607,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="A2:I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,6 +640,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -759,13 +656,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -789,6 +688,9 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/MasterList.xlsx
+++ b/MasterList.xlsx
@@ -3,27 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasharora/Desktop/School/CompSci/SignInSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D9D224-E7BA-2940-B940-DDB88B195BBA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A72B1C60-3106-8E41-AB20-B8D18A6EB0EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{5EAFCAD1-2523-D746-8D75-176EC8CBF95B}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{DE3DE74F-B9EB-844A-A379-0C0BC4B8336B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Master" sheetId="2" r:id="rId1"/>
-    <sheet name="Test" sheetId="3" r:id="rId2"/>
-    <sheet name="Chill Zone" sheetId="4" r:id="rId3"/>
-    <sheet name="Quiet Work" sheetId="5" r:id="rId4"/>
-    <sheet name="Academic Support" sheetId="6" r:id="rId5"/>
-    <sheet name="Group Work" sheetId="7" r:id="rId6"/>
+    <sheet name="Master" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="2" r:id="rId2"/>
+    <sheet name="Chill Zone" sheetId="3" r:id="rId3"/>
+    <sheet name="Quiet Work" sheetId="4" r:id="rId4"/>
+    <sheet name="Academic Support" sheetId="5" r:id="rId5"/>
+    <sheet name="Group Work" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="16">
   <si>
     <t>Student Number</t>
   </si>
@@ -58,12 +58,34 @@
   </si>
   <si>
     <t>Subject Missed</t>
+  </si>
+  <si>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>Yash</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Group Work</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Art</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -99,8 +121,8 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,19 +436,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8261B4-E6AE-8A4D-B294-53E2B203ED59}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,10 +474,63 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>43426.89297035879</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>43426.89297035879</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>43426.893146863425</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3">
+        <v>43426.891656747684</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43426.891656747684</v>
+      </c>
+      <c r="F2" s="4">
+        <v>43426.891742974534</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -473,7 +545,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,15 +581,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="A2:I2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,11 +615,6 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -566,7 +631,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,9 +661,9 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -607,15 +672,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="A2:I2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -643,11 +706,6 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -656,15 +714,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" customWidth="true" width="12.83203125" collapsed="false"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -691,6 +752,64 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>43426.89297035879</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>43426.89297035879</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>43426.893146863425</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3">
+        <v>43426.891656747684</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43426.891656747684</v>
+      </c>
+      <c r="F2" s="4">
+        <v>43426.891742974534</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/MasterList.xlsx
+++ b/MasterList.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="23">
   <si>
     <t>Student Number</t>
   </si>
@@ -79,6 +79,27 @@
   </si>
   <si>
     <t>Art</t>
+  </si>
+  <si>
+    <t>333333333</t>
+  </si>
+  <si>
+    <t>Alston</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Academic Support</t>
+  </si>
+  <si>
+    <t>Subject Working</t>
+  </si>
+  <si>
+    <t>Select Subject</t>
+  </si>
+  <si>
+    <t>Select Reason</t>
   </si>
 </sst>
 </file>
@@ -115,12 +136,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
@@ -437,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8261B4-E6AE-8A4D-B294-53E2B203ED59}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
@@ -471,64 +508,160 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="21" t="n">
+        <v>43427.12619243056</v>
+      </c>
+      <c r="E2" s="22" t="n">
+        <v>43427.12619243056</v>
+      </c>
+      <c r="F2" s="22" t="n">
+        <v>43427.12627079861</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="19" t="n">
+        <v>43427.125745219906</v>
+      </c>
+      <c r="E2" s="20" t="n">
+        <v>43427.125745219906</v>
+      </c>
+      <c r="F2" s="20" t="n">
+        <v>43427.125813680555</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="15" t="n">
+        <v>43427.122366145835</v>
+      </c>
+      <c r="E3" s="16" t="n">
+        <v>43427.122366145835</v>
+      </c>
+      <c r="F3" s="16" t="n">
+        <v>43427.12248475695</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D4" s="5" t="n">
         <v>43426.89297035879</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E4" s="6" t="n">
         <v>43426.89297035879</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F4" s="6" t="n">
         <v>43426.893146863425</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D5" s="3">
         <v>43426.891656747684</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E5" s="4">
         <v>43426.891656747684</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F5" s="4">
         <v>43426.891742974534</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -722,7 +855,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="12.83203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="12.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/MasterList.xlsx
+++ b/MasterList.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasharora/Desktop/School/CompSci/SignInSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A72B1C60-3106-8E41-AB20-B8D18A6EB0EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F022177-8D68-4F49-BE82-E948597EF6D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{DE3DE74F-B9EB-844A-A379-0C0BC4B8336B}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
   <si>
     <t>Student Number</t>
   </si>
@@ -69,23 +69,16 @@
     <t>A</t>
   </si>
   <si>
-    <t>Geography</t>
-  </si>
-  <si>
-    <t>Group Work</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Art</t>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Chill Zone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -115,14 +108,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,15 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8261B4-E6AE-8A4D-B294-53E2B203ED59}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,63 +469,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>43426.89297035879</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>43426.89297035879</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>43426.893146863425</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3">
-        <v>43426.891656747684</v>
-      </c>
-      <c r="E2" s="4">
-        <v>43426.891656747684</v>
-      </c>
-      <c r="F2" s="4">
-        <v>43426.891742974534</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -545,7 +487,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,13 +523,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -614,6 +556,35 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7">
+        <v>43426.908366689815</v>
+      </c>
+      <c r="E2" s="8">
+        <v>43426.908366689815</v>
+      </c>
+      <c r="F2" s="8">
+        <v>43426.908426354166</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -631,7 +602,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -672,13 +643,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="A2:I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -706,6 +679,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -714,18 +692,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="12.83203125" collapsed="false"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -754,63 +732,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>43426.89297035879</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>43426.89297035879</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>43426.893146863425</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3">
-        <v>43426.891656747684</v>
-      </c>
-      <c r="E2" s="4">
-        <v>43426.891656747684</v>
-      </c>
-      <c r="F2" s="4">
-        <v>43426.891742974534</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
